--- a/data/mall-cloud-alibaba/mall-storage_structure.xlsx
+++ b/data/mall-cloud-alibaba/mall-storage_structure.xlsx
@@ -291,103 +291,103 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>mimeType</t>
   </si>
   <si>
-    <t>private</t>
+    <t>size</t>
   </si>
   <si>
     <t>width</t>
   </si>
   <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
     <t>callbackBody</t>
   </si>
   <si>
+    <t>callbackUrl</t>
+  </si>
+  <si>
     <t>callbackBodyType</t>
   </si>
   <si>
-    <t>callbackUrl</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>ENDPOINT</t>
+  </si>
+  <si>
+    <t>ACCESS_KEY</t>
+  </si>
+  <si>
+    <t>BUCKET_NAME</t>
+  </si>
+  <si>
     <t>SECRET_KEY</t>
   </si>
   <si>
-    <t>BUCKET_NAME</t>
-  </si>
-  <si>
-    <t>ENDPOINT</t>
-  </si>
-  <si>
-    <t>ACCESS_KEY</t>
-  </si>
-  <si>
     <t>ossService</t>
   </si>
   <si>
+    <t>ALIYUN_OSS_ENDPOINT</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_ACCESSKEYID</t>
+  </si>
+  <si>
     <t>ALIYUN_OSS_ACCESSKEYSECRET</t>
   </si>
   <si>
-    <t>ALIYUN_OSS_ENDPOINT</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_ACCESSKEYID</t>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>accessKeyId</t>
+  </si>
+  <si>
+    <t>callback</t>
   </si>
   <si>
     <t>dir</t>
   </si>
   <si>
-    <t>callback</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
     <t>policy</t>
   </si>
   <si>
-    <t>accessKeyId</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
+    <t>ossClient</t>
+  </si>
+  <si>
     <t>ALIYUN_OSS_CALLBACK</t>
   </si>
   <si>
+    <t>ALIYUN_OSS_MAX_SIZE</t>
+  </si>
+  <si>
+    <t>ALIYUN_OSS_EXPIRE</t>
+  </si>
+  <si>
     <t>ALIYUN_OSS_DIR_PREFIX</t>
   </si>
   <si>
-    <t>ossClient</t>
-  </si>
-  <si>
     <t>ALIYUN_OSS_BUCKET_NAME</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_EXPIRE</t>
-  </si>
-  <si>
-    <t>ALIYUN_OSS_MAX_SIZE</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -3846,13 +3846,13 @@
         <v>71</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>90</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -3860,13 +3860,13 @@
         <v>71</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>90</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -3880,7 +3880,7 @@
         <v>90</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -3908,7 +3908,7 @@
         <v>90</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -3922,7 +3922,7 @@
         <v>90</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -3936,7 +3936,7 @@
         <v>90</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -3950,7 +3950,7 @@
         <v>90</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
